--- a/Docs/사용할 변수 목록.xlsx
+++ b/Docs/사용할 변수 목록.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sh22h\OneDrive\문서\#대학원\식영_심뇌혈관\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIthub\KoGES_CVD\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_058CA9C6EECC7807BE0C9D14A5279B71C37558C6" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{278BEB73-EEA1-4AAE-BF00-9BCC59BA3D26}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4BE8AE-D307-4ACF-94A8-E3435AC21B6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25035" yWindow="405" windowWidth="25215" windowHeight="11160" tabRatio="740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="25035" yWindow="405" windowWidth="25215" windowHeight="11160" tabRatio="740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="사용할 변수 목록 모아보기" sheetId="61" r:id="rId1"/>
@@ -26,12 +26,12 @@
     <definedName name="변수리스트">#REF!</definedName>
     <definedName name="중소도시">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="252">
   <si>
     <t xml:space="preserve">보리밥  </t>
   </si>
@@ -304,25 +304,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AS1_Sex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>성별</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AS1_Age</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>연령</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AS1_Drink</t>
-  </si>
-  <si>
     <t>심근경색 진단받은 경험유무</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -351,39 +340,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AS1_DrugStkCu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS1_PdMi</t>
-  </si>
-  <si>
-    <t>AS1_PdCh</t>
-  </si>
-  <si>
-    <t>AS1_PdCd</t>
-  </si>
-  <si>
-    <t>AS1_PdCv</t>
-  </si>
-  <si>
-    <t>AS1_TrtMi</t>
-  </si>
-  <si>
-    <t>AS1_TrtCh</t>
-  </si>
-  <si>
-    <t>AS1_TrtCd</t>
-  </si>
-  <si>
-    <t>AS1_TrtCv</t>
-  </si>
-  <si>
     <t>귀하는 원래 술을 못 마시거나 또는 처음부터 (종교적인 이유 등으로) 술을 안 마십니까 ?</t>
-  </si>
-  <si>
-    <t>AS1_TotAlc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>국수(장국국수,우동)</t>
@@ -822,6 +779,95 @@
   </si>
   <si>
     <t>식이지수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">변수값(코드) 설명
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(66666=조사안함, 77777=해당없음, 99999=미상/무응답/미측정)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=아니오, 2=예</t>
+  </si>
+  <si>
+    <t>1=남자, 2=여자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만(    )세</t>
+  </si>
+  <si>
+    <t>1=예, 2=아니오(과거음주), 3=아니오(현재음주)</t>
+  </si>
+  <si>
+    <t>(    )g/day</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결측값 처리법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=아니오, 2=예</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_PDMI</t>
+  </si>
+  <si>
+    <t>AS1_PDCH</t>
+  </si>
+  <si>
+    <t>AS1_PDCD</t>
+  </si>
+  <si>
+    <t>AS1_PDCV</t>
+  </si>
+  <si>
+    <t>AS1_TRTMI</t>
+  </si>
+  <si>
+    <t>AS1_TRTCH</t>
+  </si>
+  <si>
+    <t>AS1_TRTCD</t>
+  </si>
+  <si>
+    <t>AS1_TRTCV</t>
+  </si>
+  <si>
+    <t>AS1_DRUGSTKCU</t>
+  </si>
+  <si>
+    <t>AS1_SEX</t>
+  </si>
+  <si>
+    <t>AS1_AGE</t>
+  </si>
+  <si>
+    <t>AS1_DRINK</t>
+  </si>
+  <si>
+    <t>AS1_TOTALC</t>
+  </si>
+  <si>
+    <t>AS1_DRINK가 1, 2이면 77777 -&gt; 0으로 변경(=5248)
+AS1_DRINK가 3인데, AS1_TOTALC가 99999인 경우(=214) 데이터 세심하게 볼 필요있음
+(예시: 소주 주량 4,음주잔 크기 결측값이라면 소주잔이라고 가정하고, 값 채우기)
+AS1_DRINK 99999이면 평균값으로</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -835,7 +881,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -882,6 +928,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -909,7 +963,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -941,6 +995,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -962,7 +1029,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -982,9 +1049,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -996,6 +1060,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1348,1328 +1442,1392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922B2BC1-34D9-48EC-8412-F84CF9008D60}">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="61.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="34.5" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E5" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="E8" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="E9" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="9"/>
+      <c r="B14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
+      <c r="E14" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>127</v>
+        <v>117</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9"/>
+      <c r="B16" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>113</v>
+        <v>129</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>114</v>
+        <v>137</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D38" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D39" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D41" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D43" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D44" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D46" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D47" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D49" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D51" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D52" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D53" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B54" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D54" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B55" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D55" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B56" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D56" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B57" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D57" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B58" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D58" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D59" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B60" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D60" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B61" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D61" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B62" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>115</v>
+        <v>170</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B63" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D63" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B64" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D64" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D65" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D66" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B67" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D67" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>116</v>
+        <v>176</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B69" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D69" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B70" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D70" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B71" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D71" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D72" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B73" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D73" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B74" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>117</v>
+        <v>182</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B75" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D75" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B76" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D76" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B77" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>118</v>
+        <v>185</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B78" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D78" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B79" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D79" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B80" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D80" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B81" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D81" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B82" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>119</v>
+        <v>190</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>120</v>
+        <v>191</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B84" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D84" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="2:4" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B85" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>121</v>
+        <v>193</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B86" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D86" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B87" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D87" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B88" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D88" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D88" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B89" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D89" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D89" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B90" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D90" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B91" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D91" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B92" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D92" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B93" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D93" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B94" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D94" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D94" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B95" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D95" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="2:4" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B96" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>122</v>
+        <v>204</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B97" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D97" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B98" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D98" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B99" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D99" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D99" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B100" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D100" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D100" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B101" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D101" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D101" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="102" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B102" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>123</v>
+        <v>210</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B103" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D103" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D103" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B104" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D104" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D104" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B105" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D105" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D105" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B106" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D106" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D106" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B107" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D107" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D107" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B108" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D108" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D108" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B109" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D109" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D109" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B110" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D110" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D110" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B111" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D111" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D111" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="112" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B112" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>124</v>
+        <v>220</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B113" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D113" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D113" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B114" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D114" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D114" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B115" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D115" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D115" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B116" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D116" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D116" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B117" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D117" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D117" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="118" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B118" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>125</v>
+        <v>226</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/사용할 변수 목록.xlsx
+++ b/Docs/사용할 변수 목록.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20409"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIthub\KoGES_CVD\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4BE8AE-D307-4ACF-94A8-E3435AC21B6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AA5EEC-A19B-4458-98F6-F54229866CF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="25035" yWindow="405" windowWidth="25215" windowHeight="11160" tabRatio="740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25035" yWindow="405" windowWidth="25215" windowHeight="11160" tabRatio="740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="사용할 변수 목록 모아보기" sheetId="61" r:id="rId1"/>
+    <sheet name="독립변수" sheetId="63" r:id="rId1"/>
+    <sheet name="종속변수, 식이지수 도출위한 변수" sheetId="61" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="aa">#REF!</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="341">
   <si>
     <t xml:space="preserve">보리밥  </t>
   </si>
@@ -301,230 +302,273 @@
   </si>
   <si>
     <t>울혈성 심부전증 현재 치료 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_Sex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>성별</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_Age</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>연령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_Drink</t>
   </si>
   <si>
     <t>심근경색 진단받은 경험유무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>관상동맥질환 진단받은 경험유무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>울혈성심부전 진단받은 경험유무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>뇌혈관질환 진단받은 경험유무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>심근경색 현재 치료 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>관상동맥질환 현재 치료 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>뇌혈관질환 현재 치료 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_DrugStkCu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_PdMi</t>
+  </si>
+  <si>
+    <t>AS1_PdCh</t>
+  </si>
+  <si>
+    <t>AS1_PdCd</t>
+  </si>
+  <si>
+    <t>AS1_PdCv</t>
+  </si>
+  <si>
+    <t>AS1_TrtMi</t>
+  </si>
+  <si>
+    <t>AS1_TrtCh</t>
+  </si>
+  <si>
+    <t>AS1_TrtCd</t>
+  </si>
+  <si>
+    <t>AS1_TrtCv</t>
   </si>
   <si>
     <t>귀하는 원래 술을 못 마시거나 또는 처음부터 (종교적인 이유 등으로) 술을 안 마십니까 ?</t>
   </si>
   <si>
+    <t>AS1_TotAlc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>국수(장국국수,우동)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>기타빵(크림빵,카스텔라등)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>늙은호박(호박죽)/호박즙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>기타버섯(양송이,팽이,표고)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>사과/사과주스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>복숭아/자두</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>닭고기/닭다리/닭날개</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>돼지고기구이(갈비,등심 등)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>돼지고기찜(장조림,족발,순대)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>등푸른생선(고등어,꽁치,삼치)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>조개(꼬막,바지락,조개살)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>청량음료(콜라,사이다)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>기타음료(식혜,유자차 등)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">뇌졸중약 현재 지속여부 </t>
   </si>
   <si>
     <t>쌀밥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>변수명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>변수설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>총 섭취 알코올량(/일)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>테이블명
 (영문)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AS1_01_EXAMINEE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_03_DRSM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_06_DISEASE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_07_TREAT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_08_DRUG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W008</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W009</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W015</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W016</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W017</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W018</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W021</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W022</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AS1_W023</t>
@@ -771,104 +815,374 @@
   </si>
   <si>
     <t>AS1_17_FFQWEIGHT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>종속변수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>식이지수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">변수값(코드) 설명
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(66666=조사안함, 77777=해당없음, 99999=미상/무응답/미측정)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=아니오, 2=예</t>
-  </si>
-  <si>
-    <t>1=남자, 2=여자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>만(    )세</t>
-  </si>
-  <si>
-    <t>1=예, 2=아니오(과거음주), 3=아니오(현재음주)</t>
-  </si>
-  <si>
-    <t>(    )g/day</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결측값 처리법</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=아니오, 2=예</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AS1_PDMI</t>
-  </si>
-  <si>
-    <t>AS1_PDCH</t>
-  </si>
-  <si>
-    <t>AS1_PDCD</t>
-  </si>
-  <si>
-    <t>AS1_PDCV</t>
-  </si>
-  <si>
-    <t>AS1_TRTMI</t>
-  </si>
-  <si>
-    <t>AS1_TRTCH</t>
-  </si>
-  <si>
-    <t>AS1_TRTCD</t>
-  </si>
-  <si>
-    <t>AS1_TRTCV</t>
-  </si>
-  <si>
-    <t>AS1_DRUGSTKCU</t>
-  </si>
-  <si>
-    <t>AS1_SEX</t>
-  </si>
-  <si>
-    <t>AS1_AGE</t>
-  </si>
-  <si>
-    <t>AS1_DRINK</t>
-  </si>
-  <si>
-    <t>AS1_TOTALC</t>
-  </si>
-  <si>
-    <t>AS1_DRINK가 1, 2이면 77777 -&gt; 0으로 변경(=5248)
-AS1_DRINK가 3인데, AS1_TOTALC가 99999인 경우(=214) 데이터 세심하게 볼 필요있음
-(예시: 소주 주량 4,음주잔 크기 결측값이라면 소주잔이라고 가정하고, 값 채우기)
-AS1_DRINK 99999이면 평균값으로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DII</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경훈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEAP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRAL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DASH</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>aMED without alcohol scoring</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMED</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KHEI (90)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>신장을 M로 바꾸기 160일경우 1.6 -&gt; (체중/키m*키m, kg/m2 )  계산신 모를 경우 전화로 체크</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_19_ANTHRO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_Weight</t>
+  </si>
+  <si>
+    <t>AS1_Height</t>
+  </si>
+  <si>
+    <t>허리둘레 3회측청 평균 사용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>허리둘레</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위차이</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_18_BIOCHEM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_RgMealFqA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_16_DIET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_SlpAmSf</t>
+  </si>
+  <si>
+    <t>AS1_13_SLEEP</t>
+  </si>
+  <si>
+    <t>중성지방</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>총콜레스테롤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDL-콜레스테롤 [총콜레스테롤-HDL콜레스테롤-(triglyceride/5)]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tchl &gt;= 240 or LDL &gt;= 160 or TG &gt;= 200 or HDL &lt; 40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고지혈증</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pddm == 2 or druginscu == 2 or glu0 &gt;= 126 or hba1c &gt;= 6.5 or glu120 &gt;= 200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>당뇨여부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdht == 2 or drughtcu == 2 or 3회평균_sys &gt;= 140 or 3회평균_dia &gt;=90</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>고혈압여부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_Tied</t>
+  </si>
+  <si>
+    <t>AS1_05_MEDIC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_Health</t>
+  </si>
+  <si>
+    <t>AS1_PhyActH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_04_ACTIVE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_PhyActM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_PhyActL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_HvSmAm</t>
+  </si>
+  <si>
+    <t>AS1_SmokeA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_Income</t>
+  </si>
+  <si>
+    <t>AS1_02_GEN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_EduA</t>
+  </si>
+  <si>
+    <t>AS1_JobB</t>
+  </si>
+  <si>
+    <t>AS1_MarryA</t>
+  </si>
+  <si>
+    <t>AS1_Edate1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_Area</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가공시 사용할변수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가공방법</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>가공여부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용여부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                             </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_PDHT</t>
+  </si>
+  <si>
+    <t>AS1_DRUGHTCU</t>
+  </si>
+  <si>
+    <t>AS1_BPLIE1S</t>
+  </si>
+  <si>
+    <t>AS1_BPLIE1D</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>AS1_PDDM</t>
+  </si>
+  <si>
+    <t>AS1_DRUGINSCU</t>
+  </si>
+  <si>
+    <t>AS1_GLU0_TR</t>
+  </si>
+  <si>
+    <t>AS1_HBA1C</t>
+  </si>
+  <si>
+    <t>AS1_GLU120_TR</t>
+  </si>
+  <si>
+    <t>AS1_PDLP</t>
+  </si>
+  <si>
+    <t>AS1_DRUGSLCU</t>
+  </si>
+  <si>
+    <t>AS1_TCHL_TR</t>
+  </si>
+  <si>
+    <t>AS1_HDL_TR</t>
+  </si>
+  <si>
+    <t>AS1_TG_TR</t>
+  </si>
+  <si>
+    <t>AS1_WAIST1</t>
+  </si>
+  <si>
+    <t>AS1_WAIST2</t>
+  </si>
+  <si>
+    <t>AS1_WAIST3</t>
+  </si>
+  <si>
+    <t>PD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 유형</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수명 변환</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAS_HYPERTENSION</t>
+  </si>
+  <si>
+    <t>HAS_DIABETES</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAS_HYPERLIPIDEMI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t> WAIST_CIRCUMFERENCE</t>
+  </si>
+  <si>
+    <t>HOMA_IR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_Ins0</t>
+  </si>
+  <si>
+    <t>AS1_Glu0_TR</t>
+  </si>
+  <si>
+    <t>HOMA_IR=공복 혈중인슐린(uU/mL)] × [공복 혈당(nmol/L)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>µIU/㎖ -&gt; uU/mL 둘은 같은 거임. mg/dL -&gt; nmol/L 이게 문제임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 유형</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cath0: Categorical variables with hierarchies</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cath1: Categorical variables with hierarchies</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnt: continuous</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cath0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cath1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -881,12 +1195,20 @@
     <numFmt numFmtId="44" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -929,7 +1251,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -963,7 +1298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -995,113 +1330,124 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="백분율" xfId="5" builtinId="5" hidden="1"/>
     <cellStyle name="쉼표" xfId="2" builtinId="3" hidden="1"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6" hidden="1"/>
     <cellStyle name="통화" xfId="3" builtinId="4" hidden="1"/>
     <cellStyle name="통화 [0]" xfId="4" builtinId="7" hidden="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="6" xr:uid="{65DA4ECB-41B3-48F4-92EB-C72250F91D1D}"/>
+    <cellStyle name="표준 2 2" xfId="7" xr:uid="{24580B84-550F-4148-A4A3-C1634C4B8D1A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1441,1400 +1787,2589 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF02DC0-EBC6-43DD-AAE3-833252A05070}">
+  <dimension ref="A1:R43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="18" customWidth="1"/>
+    <col min="5" max="6" width="7.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.109375" style="20" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="25" t="str">
+        <f>UPPER(B2)</f>
+        <v>AS1_ID</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="N2" s="23">
+        <v>6</v>
+      </c>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+    </row>
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="25" t="str">
+        <f t="shared" ref="C3:C38" si="0">UPPER(B3)</f>
+        <v>AS1_AREA</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="N3" s="23">
+        <v>8</v>
+      </c>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+    </row>
+    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_EDATE1</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="N4" s="23">
+        <v>19</v>
+      </c>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+    </row>
+    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_SEX</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="N5" s="23">
+        <v>19</v>
+      </c>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+    </row>
+    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_AGE</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="N6" s="23">
+        <v>18</v>
+      </c>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+    </row>
+    <row r="7" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_MARRYA</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="N7" s="23">
+        <v>18</v>
+      </c>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+    </row>
+    <row r="8" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_JOBB</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="N8" s="23">
+        <v>18</v>
+      </c>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+    </row>
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_EDUA</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="N9" s="23">
+        <v>18</v>
+      </c>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+    </row>
+    <row r="10" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_INCOME</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="N10" s="23">
+        <v>18</v>
+      </c>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+    </row>
+    <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_DRINK</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="N11" s="23">
+        <v>19</v>
+      </c>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+    </row>
+    <row r="12" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_TOTALC</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_SMOKEA</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+    </row>
+    <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_HVSMAM</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+    </row>
+    <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_PHYACTL</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+    </row>
+    <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_PHYACTM</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+    </row>
+    <row r="17" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_PHYACTH</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+    </row>
+    <row r="18" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_HEALTH</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+    </row>
+    <row r="19" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_TIED</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+    </row>
+    <row r="20" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+    </row>
+    <row r="21" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+    </row>
+    <row r="22" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+    </row>
+    <row r="23" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>LDL</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="24" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_SLPAMSF</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+    </row>
+    <row r="25" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C25" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_RGMEALFQA</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+    </row>
+    <row r="26" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>HOMA_IR</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+    </row>
+    <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="C27" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_GLU0_TR</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+    </row>
+    <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+    </row>
+    <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_HEIGHT</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+    </row>
+    <row r="30" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AS1_WEIGHT</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+    </row>
+    <row r="31" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C31" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>BMI</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+    </row>
+    <row r="32" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>KHEI (90)</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+    </row>
+    <row r="33" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AMED</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+    </row>
+    <row r="34" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C34" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>AMED WITHOUT ALCOHOL SCORING</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+    </row>
+    <row r="35" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>DASH</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+    </row>
+    <row r="36" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>PRAL</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>NEAP</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C38" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>DII</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B40" s="23"/>
+      <c r="D40" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B41" s="23"/>
+      <c r="D41" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B42" s="23"/>
+      <c r="D42" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D43" s="18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922B2BC1-34D9-48EC-8412-F84CF9008D60}">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="61.5546875" customWidth="1"/>
+    <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
-        <v>228</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="26" t="s">
+        <v>241</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="26"/>
+      <c r="B4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+      <c r="B7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="26"/>
+      <c r="B8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="26"/>
+      <c r="B9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="26"/>
+      <c r="B10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
-      <c r="B3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="D13" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>249</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:6" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
       <c r="B15" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>114</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>100</v>
+        <v>142</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>101</v>
+        <v>150</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D31" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D35" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D46" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D48" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D50" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B54" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D54" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B55" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D55" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B56" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D56" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B57" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D57" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B58" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D58" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D59" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B60" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D60" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B61" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D61" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B62" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>102</v>
+        <v>183</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B63" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D63" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B64" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D64" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D65" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D66" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B67" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D67" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>103</v>
+        <v>189</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B69" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D69" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B70" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D70" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B71" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D71" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D72" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B73" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D73" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B74" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>104</v>
+        <v>195</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B75" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D75" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B76" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D76" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B77" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>105</v>
+        <v>198</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B78" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D78" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B79" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D79" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B80" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D80" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B81" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D81" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B82" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>106</v>
+        <v>203</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>107</v>
+        <v>204</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B84" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D84" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:4" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B85" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>108</v>
+        <v>206</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B86" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D86" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B87" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D87" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B88" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D88" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B89" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D89" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B90" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D90" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B91" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D91" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B92" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D92" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B93" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D93" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B94" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D94" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B95" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D95" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:4" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B96" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>109</v>
+        <v>217</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B97" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D97" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B98" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D98" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B99" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D99" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B100" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D100" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B101" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D101" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="102" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B102" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>110</v>
+        <v>223</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B103" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D103" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B104" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D104" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B105" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D105" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B106" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B107" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D107" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B108" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D108" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B109" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D109" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B110" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D110" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B111" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D111" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="112" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B112" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>111</v>
+        <v>233</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B113" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D113" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B114" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D114" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D114" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B115" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D115" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B116" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D116" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D116" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B117" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D117" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D117" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="118" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B118" s="2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>112</v>
+        <v>239</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A10"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Docs/사용할 변수 목록.xlsx
+++ b/Docs/사용할 변수 목록.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIthub\KoGES_CVD\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AA5EEC-A19B-4458-98F6-F54229866CF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F1748A-5BD9-4C7A-9B23-97CDE1E7C7CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25035" yWindow="405" windowWidth="25215" windowHeight="11160" tabRatio="740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25035" yWindow="405" windowWidth="25215" windowHeight="11160" tabRatio="740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="독립변수" sheetId="63" r:id="rId1"/>
-    <sheet name="종속변수, 식이지수 도출위한 변수" sheetId="61" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="64" r:id="rId2"/>
+    <sheet name="종속변수, 식이지수 도출위한 변수" sheetId="61" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="aa">#REF!</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="367">
   <si>
     <t xml:space="preserve">보리밥  </t>
   </si>
@@ -1128,9 +1129,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t> WAIST_CIRCUMFERENCE</t>
-  </si>
-  <si>
     <t>HOMA_IR</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1182,6 +1180,90 @@
   </si>
   <si>
     <t>cath1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAIST_AVG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS1_SEX</t>
+  </si>
+  <si>
+    <t>AS1_AGE</t>
+  </si>
+  <si>
+    <t>AS1_MARRYA</t>
+  </si>
+  <si>
+    <t>AS1_JOBB</t>
+  </si>
+  <si>
+    <t>AS1_EDUA</t>
+  </si>
+  <si>
+    <t>AS1_INCOME</t>
+  </si>
+  <si>
+    <t>AS1_DRINK</t>
+  </si>
+  <si>
+    <t>AS1_TOTALC</t>
+  </si>
+  <si>
+    <t>AS1_SMOKEA</t>
+  </si>
+  <si>
+    <t>AS1_HVSMAM</t>
+  </si>
+  <si>
+    <t>AS1_PHYACTL</t>
+  </si>
+  <si>
+    <t>AS1_PHYACTM</t>
+  </si>
+  <si>
+    <t>AS1_PHYACTH</t>
+  </si>
+  <si>
+    <t>AS1_HEALTH</t>
+  </si>
+  <si>
+    <t>AS1_TIED</t>
+  </si>
+  <si>
+    <t>AS1_SLPAMSF</t>
+  </si>
+  <si>
+    <t>AS1_RGMEALFQA</t>
+  </si>
+  <si>
+    <t>HOMA_IR</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>AMED</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>PRAL</t>
+  </si>
+  <si>
+    <t>NEAP</t>
+  </si>
+  <si>
+    <t>DII</t>
+  </si>
+  <si>
+    <t>AMED_NONALC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KHEI90</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1790,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF02DC0-EBC6-43DD-AAE3-833252A05070}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F38" sqref="A1:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1824,7 +1906,7 @@
         <v>322</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>297</v>
@@ -1948,7 +2030,7 @@
         <v>AS1_SEX</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
@@ -1979,7 +2061,7 @@
         <v>AS1_AGE</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -2010,7 +2092,7 @@
         <v>AS1_MARRYA</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
@@ -2041,7 +2123,7 @@
         <v>AS1_JOBB</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -2072,7 +2154,7 @@
         <v>AS1_EDUA</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -2103,7 +2185,7 @@
         <v>AS1_INCOME</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -2134,7 +2216,7 @@
         <v>AS1_DRINK</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -2165,7 +2247,7 @@
         <v>AS1_TOTALC</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -2192,7 +2274,7 @@
         <v>AS1_SMOKEA</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
@@ -2219,7 +2301,7 @@
         <v>AS1_HVSMAM</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -2246,7 +2328,7 @@
         <v>AS1_PHYACTL</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
@@ -2273,7 +2355,7 @@
         <v>AS1_PHYACTM</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
@@ -2300,7 +2382,7 @@
         <v>AS1_PHYACTH</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
@@ -2327,7 +2409,7 @@
         <v>AS1_HEALTH</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -2354,7 +2436,7 @@
         <v>AS1_TIED</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
@@ -2379,7 +2461,7 @@
         <v>323</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
@@ -2421,7 +2503,7 @@
         <v>324</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="22" t="s">
@@ -2463,7 +2545,7 @@
         <v>325</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="22" t="s">
@@ -2539,7 +2621,7 @@
         <v>AS1_SLPAMSF</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -2567,7 +2649,7 @@
         <v>AS1_RGMEALFQA</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -2587,27 +2669,27 @@
         <v>261</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C26" s="25" t="str">
         <f t="shared" si="0"/>
         <v>HOMA_IR</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22" t="s">
         <v>252</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H26" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="I26" s="23" t="s">
         <v>328</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>329</v>
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
@@ -2622,7 +2704,7 @@
         <v>261</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C27" s="25" t="str">
         <f t="shared" si="0"/>
@@ -2634,7 +2716,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>260</v>
@@ -2656,10 +2738,10 @@
         <v>259</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="22" t="s">
@@ -2750,7 +2832,7 @@
         <v>BMI</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="22" t="s">
@@ -2781,7 +2863,7 @@
         <v>KHEI (90)</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
@@ -2808,7 +2890,7 @@
         <v>AMED</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -2835,7 +2917,7 @@
         <v>AMED WITHOUT ALCOHOL SCORING</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
@@ -2862,7 +2944,7 @@
         <v>DASH</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
@@ -2889,7 +2971,7 @@
         <v>PRAL</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
@@ -2916,7 +2998,7 @@
         <v>NEAP</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
@@ -2943,7 +3025,7 @@
         <v>DII</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -2976,7 +3058,7 @@
     <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B40" s="23"/>
       <c r="D40" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
@@ -2994,7 +3076,7 @@
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B41" s="23"/>
       <c r="D41" s="18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
@@ -3012,7 +3094,7 @@
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B42" s="23"/>
       <c r="D42" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
@@ -3029,7 +3111,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D43" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3122,541 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87735D5-3305-499A-91CF-AE2FF87C94D3}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922B2BC1-34D9-48EC-8412-F84CF9008D60}">
   <dimension ref="A1:D118"/>
   <sheetViews>
